--- a/Code/Results/Cases/Case_5_176/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_176/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.012396112597346</v>
+        <v>1.04599157227274</v>
       </c>
       <c r="D2">
-        <v>1.027279534055018</v>
+        <v>1.047912524197416</v>
       </c>
       <c r="E2">
-        <v>1.016704363937882</v>
+        <v>1.043620486007928</v>
       </c>
       <c r="F2">
-        <v>1.016314198724507</v>
+        <v>1.053562309972952</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04629243837438</v>
+        <v>1.043376629930183</v>
       </c>
       <c r="J2">
-        <v>1.034212275646221</v>
+        <v>1.05104835039516</v>
       </c>
       <c r="K2">
-        <v>1.038371466375732</v>
+        <v>1.050673836319028</v>
       </c>
       <c r="L2">
-        <v>1.027935784150162</v>
+        <v>1.046393837905036</v>
       </c>
       <c r="M2">
-        <v>1.027550835003845</v>
+        <v>1.056307935735965</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018608248133002</v>
+        <v>1.047236337949261</v>
       </c>
       <c r="D3">
-        <v>1.032087509155201</v>
+        <v>1.048887649499187</v>
       </c>
       <c r="E3">
-        <v>1.021836941982805</v>
+        <v>1.044690870434723</v>
       </c>
       <c r="F3">
-        <v>1.023113007498965</v>
+        <v>1.055000161718333</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048638614238378</v>
+        <v>1.043777781630567</v>
       </c>
       <c r="J3">
-        <v>1.038604174748463</v>
+        <v>1.051939546910758</v>
       </c>
       <c r="K3">
-        <v>1.042325648046574</v>
+        <v>1.051460478548694</v>
       </c>
       <c r="L3">
-        <v>1.032197835901231</v>
+        <v>1.04727461669178</v>
       </c>
       <c r="M3">
-        <v>1.033458453545545</v>
+        <v>1.057557257706075</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.02252189091218</v>
+        <v>1.048041143505223</v>
       </c>
       <c r="D4">
-        <v>1.035119039021331</v>
+        <v>1.049517997423588</v>
       </c>
       <c r="E4">
-        <v>1.025075913521227</v>
+        <v>1.045383153643662</v>
       </c>
       <c r="F4">
-        <v>1.027399964889191</v>
+        <v>1.055930257446881</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050106287137675</v>
+        <v>1.044035803055177</v>
       </c>
       <c r="J4">
-        <v>1.041366517841672</v>
+        <v>1.052515067234555</v>
       </c>
       <c r="K4">
-        <v>1.044811308422489</v>
+        <v>1.051968250394145</v>
       </c>
       <c r="L4">
-        <v>1.034880828808653</v>
+        <v>1.047843618625594</v>
       </c>
       <c r="M4">
-        <v>1.037178571807023</v>
+        <v>1.058364843853478</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024143023821424</v>
+        <v>1.048379333379124</v>
       </c>
       <c r="D5">
-        <v>1.036375305933308</v>
+        <v>1.049782848163068</v>
       </c>
       <c r="E5">
-        <v>1.026418819632247</v>
+        <v>1.045674113111397</v>
       </c>
       <c r="F5">
-        <v>1.029176655914887</v>
+        <v>1.056321204275614</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05071169254763</v>
+        <v>1.044143905090804</v>
       </c>
       <c r="J5">
-        <v>1.042509616044987</v>
+        <v>1.05275674427203</v>
       </c>
       <c r="K5">
-        <v>1.04583956787498</v>
+        <v>1.052181422931124</v>
       </c>
       <c r="L5">
-        <v>1.035991638138207</v>
+        <v>1.048082608404508</v>
       </c>
       <c r="M5">
-        <v>1.038719147173395</v>
+        <v>1.058704163072175</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024413836135126</v>
+        <v>1.048436108218339</v>
       </c>
       <c r="D6">
-        <v>1.036585195913069</v>
+        <v>1.049827309165889</v>
       </c>
       <c r="E6">
-        <v>1.026643224798208</v>
+        <v>1.045722962062032</v>
       </c>
       <c r="F6">
-        <v>1.029473509462921</v>
+        <v>1.056386842252297</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050812675514542</v>
+        <v>1.044162034221213</v>
       </c>
       <c r="J6">
-        <v>1.042700503980218</v>
+        <v>1.052797307035894</v>
       </c>
       <c r="K6">
-        <v>1.046011258109161</v>
+        <v>1.052217198303267</v>
       </c>
       <c r="L6">
-        <v>1.036177166044139</v>
+        <v>1.048122723071852</v>
       </c>
       <c r="M6">
-        <v>1.038976479262203</v>
+        <v>1.05876112522525</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022543645961776</v>
+        <v>1.048045663001911</v>
       </c>
       <c r="D7">
-        <v>1.035135895699028</v>
+        <v>1.049521536949698</v>
       </c>
       <c r="E7">
-        <v>1.02509393004601</v>
+        <v>1.045387041756104</v>
       </c>
       <c r="F7">
-        <v>1.02742380379122</v>
+        <v>1.055935481549429</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050114421586122</v>
+        <v>1.044037248973103</v>
       </c>
       <c r="J7">
-        <v>1.041381862380561</v>
+        <v>1.052518297600056</v>
       </c>
       <c r="K7">
-        <v>1.044825112783627</v>
+        <v>1.05197109997206</v>
       </c>
       <c r="L7">
-        <v>1.03489573775864</v>
+        <v>1.047846812875543</v>
       </c>
       <c r="M7">
-        <v>1.037199247352685</v>
+        <v>1.058369378595552</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014518248589143</v>
+        <v>1.046412381262706</v>
       </c>
       <c r="D8">
-        <v>1.02892141845707</v>
+        <v>1.048242202455471</v>
       </c>
       <c r="E8">
-        <v>1.018456520299413</v>
+        <v>1.043982296316305</v>
       </c>
       <c r="F8">
-        <v>1.018635987362322</v>
+        <v>1.054048301340043</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047096084967605</v>
+        <v>1.043512522700286</v>
       </c>
       <c r="J8">
-        <v>1.035713528819459</v>
+        <v>1.051349772405231</v>
       </c>
       <c r="K8">
-        <v>1.039723378836346</v>
+        <v>1.050939943162425</v>
       </c>
       <c r="L8">
-        <v>1.029392157805378</v>
+        <v>1.046691692980654</v>
       </c>
       <c r="M8">
-        <v>1.029569303420478</v>
+        <v>1.056730319567519</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9995046944839295</v>
+        <v>1.043529281480873</v>
       </c>
       <c r="D9">
-        <v>1.017319580137865</v>
+        <v>1.04598300060436</v>
       </c>
       <c r="E9">
-        <v>1.006086948199506</v>
+        <v>1.041504364036813</v>
       </c>
       <c r="F9">
-        <v>1.002224467740852</v>
+        <v>1.050720438655875</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041367633956048</v>
+        <v>1.042575966045973</v>
       </c>
       <c r="J9">
-        <v>1.025074955397131</v>
+        <v>1.049281833199636</v>
       </c>
       <c r="K9">
-        <v>1.030137772772561</v>
+        <v>1.049113352797281</v>
       </c>
       <c r="L9">
-        <v>1.019082034880172</v>
+        <v>1.044649089806824</v>
       </c>
       <c r="M9">
-        <v>1.015281557311661</v>
+        <v>1.053835732552515</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9888172809319019</v>
+        <v>1.041603624290201</v>
       </c>
       <c r="D10">
-        <v>1.009082785563095</v>
+        <v>1.044473494456281</v>
       </c>
       <c r="E10">
-        <v>0.9973192610757939</v>
+        <v>1.039850543879658</v>
       </c>
       <c r="F10">
-        <v>0.9905586958888905</v>
+        <v>1.048499982498131</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03723725529127</v>
+        <v>1.041943512934833</v>
       </c>
       <c r="J10">
-        <v>1.017481713258625</v>
+        <v>1.047897128045559</v>
       </c>
       <c r="K10">
-        <v>1.023289961392299</v>
+        <v>1.047889088927991</v>
       </c>
       <c r="L10">
-        <v>1.011737086368703</v>
+        <v>1.043282441092064</v>
       </c>
       <c r="M10">
-        <v>1.005100534345258</v>
+        <v>1.051901506647815</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9840050808100791</v>
+        <v>1.040768897487659</v>
       </c>
       <c r="D11">
-        <v>1.005380660098733</v>
+        <v>1.043819036668174</v>
       </c>
       <c r="E11">
-        <v>0.9933817232701468</v>
+        <v>1.039133950918332</v>
       </c>
       <c r="F11">
-        <v>0.9853093126797903</v>
+        <v>1.047537995765653</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035365749898456</v>
+        <v>1.041667721625165</v>
       </c>
       <c r="J11">
-        <v>1.014058745365662</v>
+        <v>1.04729606403219</v>
       </c>
       <c r="K11">
-        <v>1.020201813448439</v>
+        <v>1.047357393743446</v>
       </c>
       <c r="L11">
-        <v>1.008429539263635</v>
+        <v>1.042689475146048</v>
       </c>
       <c r="M11">
-        <v>1.000513695398703</v>
+        <v>1.051062846536271</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9821876326827086</v>
+        <v>1.040458702981133</v>
       </c>
       <c r="D12">
-        <v>1.003983589703587</v>
+        <v>1.043575814683647</v>
       </c>
       <c r="E12">
-        <v>0.9918962823232095</v>
+        <v>1.038867702064533</v>
       </c>
       <c r="F12">
-        <v>0.9833271902975622</v>
+        <v>1.047180588629667</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034657236773862</v>
+        <v>1.041564988375986</v>
       </c>
       <c r="J12">
-        <v>1.012765454369825</v>
+        <v>1.047072577475409</v>
       </c>
       <c r="K12">
-        <v>1.019034866311725</v>
+        <v>1.047159658735372</v>
       </c>
       <c r="L12">
-        <v>1.007180401199368</v>
+        <v>1.04246903881932</v>
       </c>
       <c r="M12">
-        <v>0.9987809410911154</v>
+        <v>1.050751156925892</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9825788774068098</v>
+        <v>1.040525247145238</v>
       </c>
       <c r="D13">
-        <v>1.004284285821998</v>
+        <v>1.043627992418707</v>
       </c>
       <c r="E13">
-        <v>0.9922159778851083</v>
+        <v>1.0389248167513</v>
       </c>
       <c r="F13">
-        <v>0.9837538659674893</v>
+        <v>1.047257257486262</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034809834648983</v>
+        <v>1.041587038245915</v>
       </c>
       <c r="J13">
-        <v>1.013043885269822</v>
+        <v>1.047120526307462</v>
       </c>
       <c r="K13">
-        <v>1.019286103674101</v>
+        <v>1.047202084450761</v>
       </c>
       <c r="L13">
-        <v>1.007449301596329</v>
+        <v>1.042516331450811</v>
       </c>
       <c r="M13">
-        <v>0.9991539729674405</v>
+        <v>1.050818023347412</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9838554756200407</v>
+        <v>1.040743259587657</v>
       </c>
       <c r="D14">
-        <v>1.005265635014373</v>
+        <v>1.043798934471559</v>
       </c>
       <c r="E14">
-        <v>0.9932594129749194</v>
+        <v>1.039111944235785</v>
       </c>
       <c r="F14">
-        <v>0.9851461436349778</v>
+        <v>1.047508454091579</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035307461797949</v>
+        <v>1.041659235628998</v>
       </c>
       <c r="J14">
-        <v>1.013952296851166</v>
+        <v>1.047277595161157</v>
       </c>
       <c r="K14">
-        <v>1.020105767194777</v>
+        <v>1.047341053809663</v>
       </c>
       <c r="L14">
-        <v>1.00832671374895</v>
+        <v>1.042671257544681</v>
       </c>
       <c r="M14">
-        <v>1.000371070517616</v>
+        <v>1.051037085749549</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9846379848519182</v>
+        <v>1.040877565605864</v>
       </c>
       <c r="D15">
-        <v>1.005867319959677</v>
+        <v>1.043904240585668</v>
       </c>
       <c r="E15">
-        <v>0.9938992250581937</v>
+        <v>1.039227229731005</v>
       </c>
       <c r="F15">
-        <v>0.9859996160041946</v>
+        <v>1.047663213534099</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035612269025537</v>
+        <v>1.041703680075249</v>
       </c>
       <c r="J15">
-        <v>1.014509054559895</v>
+        <v>1.047374340622472</v>
       </c>
       <c r="K15">
-        <v>1.020608111570787</v>
+        <v>1.047426645582852</v>
       </c>
       <c r="L15">
-        <v>1.008864544316089</v>
+        <v>1.042766688386729</v>
       </c>
       <c r="M15">
-        <v>1.001117052078179</v>
+        <v>1.051172034146484</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9891325761425528</v>
+        <v>1.041659002968162</v>
       </c>
       <c r="D16">
-        <v>1.009325497308908</v>
+        <v>1.044516910948269</v>
       </c>
       <c r="E16">
-        <v>0.9975774717801761</v>
+        <v>1.039898091510503</v>
       </c>
       <c r="F16">
-        <v>0.9909026994734709</v>
+        <v>1.048563815111221</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037359638800069</v>
+        <v>1.041961775411645</v>
       </c>
       <c r="J16">
-        <v>1.017705909829474</v>
+        <v>1.047936987329757</v>
       </c>
       <c r="K16">
-        <v>1.023492204677931</v>
+        <v>1.04792434228885</v>
       </c>
       <c r="L16">
-        <v>1.011953797100823</v>
+        <v>1.043321768844831</v>
       </c>
       <c r="M16">
-        <v>1.005401007215229</v>
+        <v>1.051957141617491</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9919009998579847</v>
+        <v>1.042148933055577</v>
       </c>
       <c r="D17">
-        <v>1.011457373954498</v>
+        <v>1.044900998618379</v>
       </c>
       <c r="E17">
-        <v>0.9998458458584917</v>
+        <v>1.040318775653325</v>
       </c>
       <c r="F17">
-        <v>0.9939235658921669</v>
+        <v>1.049128597312489</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038432898047464</v>
+        <v>1.04212315279065</v>
       </c>
       <c r="J17">
-        <v>1.019674008271153</v>
+        <v>1.048289523306851</v>
       </c>
       <c r="K17">
-        <v>1.025267452536773</v>
+        <v>1.048236109468455</v>
       </c>
       <c r="L17">
-        <v>1.013856578495225</v>
+        <v>1.043669633725673</v>
       </c>
       <c r="M17">
-        <v>1.008038982502194</v>
+        <v>1.052449313744735</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9934981406242603</v>
+        <v>1.042434613978413</v>
       </c>
       <c r="D18">
-        <v>1.012687898717929</v>
+        <v>1.045124950369871</v>
       </c>
       <c r="E18">
-        <v>1.00115546053488</v>
+        <v>1.040564107656083</v>
       </c>
       <c r="F18">
-        <v>0.9956666635229997</v>
+        <v>1.049457975915348</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039050965557511</v>
+        <v>1.042217094885659</v>
       </c>
       <c r="J18">
-        <v>1.020809050870135</v>
+        <v>1.04849500919587</v>
       </c>
       <c r="K18">
-        <v>1.026291158425591</v>
+        <v>1.048417805613137</v>
       </c>
       <c r="L18">
-        <v>1.014954278987096</v>
+        <v>1.043872421994763</v>
       </c>
       <c r="M18">
-        <v>1.009560617586284</v>
+        <v>1.052736280935434</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.994039798190277</v>
+        <v>1.042532009149967</v>
       </c>
       <c r="D19">
-        <v>1.01310532221997</v>
+        <v>1.045201298613522</v>
       </c>
       <c r="E19">
-        <v>1.00159976508146</v>
+        <v>1.040647751812387</v>
       </c>
       <c r="F19">
-        <v>0.996257877100696</v>
+        <v>1.049570277299197</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039260387934308</v>
+        <v>1.042249095103076</v>
       </c>
       <c r="J19">
-        <v>1.021193924957526</v>
+        <v>1.048565050502515</v>
       </c>
       <c r="K19">
-        <v>1.026638259808365</v>
+        <v>1.04847973352451</v>
       </c>
       <c r="L19">
-        <v>1.015326546014923</v>
+        <v>1.043941548046484</v>
       </c>
       <c r="M19">
-        <v>1.010076626474996</v>
+        <v>1.052834111066372</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9916058137486075</v>
+        <v>1.042096377223142</v>
       </c>
       <c r="D20">
-        <v>1.011229995405151</v>
+        <v>1.0448597979477</v>
       </c>
       <c r="E20">
-        <v>0.9996038775745286</v>
+        <v>1.040273644997239</v>
       </c>
       <c r="F20">
-        <v>0.9936014300692592</v>
+        <v>1.049068006665269</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038318575479785</v>
+        <v>1.042105857836546</v>
       </c>
       <c r="J20">
-        <v>1.019464196623779</v>
+        <v>1.048251714280189</v>
       </c>
       <c r="K20">
-        <v>1.025078211855008</v>
+        <v>1.048202675578729</v>
       </c>
       <c r="L20">
-        <v>1.013653695895641</v>
+        <v>1.043632323073829</v>
       </c>
       <c r="M20">
-        <v>1.007757731520206</v>
+        <v>1.052396519588384</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9834803963999122</v>
+        <v>1.040679064247993</v>
       </c>
       <c r="D21">
-        <v>1.004977271167251</v>
+        <v>1.043748599827903</v>
       </c>
       <c r="E21">
-        <v>0.9929527928239049</v>
+        <v>1.039056841927581</v>
       </c>
       <c r="F21">
-        <v>0.9847370649409923</v>
+        <v>1.047434485268979</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035161299147128</v>
+        <v>1.041637983372981</v>
       </c>
       <c r="J21">
-        <v>1.01368540878245</v>
+        <v>1.047231348520421</v>
       </c>
       <c r="K21">
-        <v>1.01986495720844</v>
+        <v>1.047300137433293</v>
       </c>
       <c r="L21">
-        <v>1.008068918093979</v>
+        <v>1.042625640725031</v>
       </c>
       <c r="M21">
-        <v>1.000013484991802</v>
+        <v>1.050972582168968</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9781968396887598</v>
+        <v>1.039787132505778</v>
       </c>
       <c r="D22">
-        <v>1.000918111432518</v>
+        <v>1.043049208261572</v>
       </c>
       <c r="E22">
-        <v>0.9886377433667807</v>
+        <v>1.038291358282753</v>
       </c>
       <c r="F22">
-        <v>0.9789755340895669</v>
+        <v>1.04640694605967</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033098431506671</v>
+        <v>1.041342121574375</v>
       </c>
       <c r="J22">
-        <v>1.00992474608866</v>
+        <v>1.046588503173409</v>
       </c>
       <c r="K22">
-        <v>1.016471402270901</v>
+        <v>1.04673128768493</v>
       </c>
       <c r="L22">
-        <v>1.004437699933856</v>
+        <v>1.041991643237431</v>
       </c>
       <c r="M22">
-        <v>0.9949753209900041</v>
+        <v>1.050076287800698</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9810151452968768</v>
+        <v>1.040260040563807</v>
       </c>
       <c r="D23">
-        <v>1.003082636088188</v>
+        <v>1.043420039604578</v>
       </c>
       <c r="E23">
-        <v>0.9909384693647397</v>
+        <v>1.038697197369052</v>
       </c>
       <c r="F23">
-        <v>0.9820485820252123</v>
+        <v>1.046951711200015</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034199687098806</v>
+        <v>1.041499124216818</v>
       </c>
       <c r="J23">
-        <v>1.011930978735462</v>
+        <v>1.046929411847509</v>
       </c>
       <c r="K23">
-        <v>1.018281869789058</v>
+        <v>1.047032978034069</v>
       </c>
       <c r="L23">
-        <v>1.006374570395456</v>
+        <v>1.042327838227849</v>
       </c>
       <c r="M23">
-        <v>0.9976629708969059</v>
+        <v>1.050551527496223</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.991739249971596</v>
+        <v>1.042120125210276</v>
       </c>
       <c r="D24">
-        <v>1.011332777926904</v>
+        <v>1.044878415004761</v>
       </c>
       <c r="E24">
-        <v>0.9997132541899646</v>
+        <v>1.04029403774002</v>
       </c>
       <c r="F24">
-        <v>0.9937470476717418</v>
+        <v>1.049095385122726</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038370257418899</v>
+        <v>1.042113673258382</v>
       </c>
       <c r="J24">
-        <v>1.019559041274601</v>
+        <v>1.048268798991731</v>
       </c>
       <c r="K24">
-        <v>1.025163757831203</v>
+        <v>1.048217783385121</v>
       </c>
       <c r="L24">
-        <v>1.013745407277975</v>
+        <v>1.043649182507991</v>
       </c>
       <c r="M24">
-        <v>1.00788486926344</v>
+        <v>1.052420375330119</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003498319128389</v>
+        <v>1.044275250331213</v>
       </c>
       <c r="D25">
-        <v>1.020402359413837</v>
+        <v>1.046567644590186</v>
       </c>
       <c r="E25">
-        <v>1.009371253063335</v>
+        <v>1.042145288636674</v>
       </c>
       <c r="F25">
-        <v>1.006586894650308</v>
+        <v>1.051581083309771</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042900621664315</v>
+        <v>1.04281950801395</v>
       </c>
       <c r="J25">
-        <v>1.027908521729371</v>
+        <v>1.04981750696802</v>
       </c>
       <c r="K25">
-        <v>1.0326920007142</v>
+        <v>1.049586714336185</v>
       </c>
       <c r="L25">
-        <v>1.021825813599436</v>
+        <v>1.045178009103105</v>
       </c>
       <c r="M25">
-        <v>1.01908381092638</v>
+        <v>1.054584829280424</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_176/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_176/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04599157227274</v>
+        <v>1.012396112597345</v>
       </c>
       <c r="D2">
-        <v>1.047912524197416</v>
+        <v>1.027279534055018</v>
       </c>
       <c r="E2">
-        <v>1.043620486007928</v>
+        <v>1.016704363937882</v>
       </c>
       <c r="F2">
-        <v>1.053562309972952</v>
+        <v>1.016314198724507</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043376629930183</v>
+        <v>1.04629243837438</v>
       </c>
       <c r="J2">
-        <v>1.05104835039516</v>
+        <v>1.03421227564622</v>
       </c>
       <c r="K2">
-        <v>1.050673836319028</v>
+        <v>1.038371466375731</v>
       </c>
       <c r="L2">
-        <v>1.046393837905036</v>
+        <v>1.027935784150162</v>
       </c>
       <c r="M2">
-        <v>1.056307935735965</v>
+        <v>1.027550835003845</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047236337949261</v>
+        <v>1.018608248133001</v>
       </c>
       <c r="D3">
-        <v>1.048887649499187</v>
+        <v>1.0320875091552</v>
       </c>
       <c r="E3">
-        <v>1.044690870434723</v>
+        <v>1.021836941982804</v>
       </c>
       <c r="F3">
-        <v>1.055000161718333</v>
+        <v>1.023113007498964</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043777781630567</v>
+        <v>1.048638614238377</v>
       </c>
       <c r="J3">
-        <v>1.051939546910758</v>
+        <v>1.038604174748461</v>
       </c>
       <c r="K3">
-        <v>1.051460478548694</v>
+        <v>1.042325648046572</v>
       </c>
       <c r="L3">
-        <v>1.04727461669178</v>
+        <v>1.03219783590123</v>
       </c>
       <c r="M3">
-        <v>1.057557257706075</v>
+        <v>1.033458453545543</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.048041143505223</v>
+        <v>1.022521890912183</v>
       </c>
       <c r="D4">
-        <v>1.049517997423588</v>
+        <v>1.035119039021334</v>
       </c>
       <c r="E4">
-        <v>1.045383153643662</v>
+        <v>1.025075913521229</v>
       </c>
       <c r="F4">
-        <v>1.055930257446881</v>
+        <v>1.027399964889194</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044035803055177</v>
+        <v>1.050106287137676</v>
       </c>
       <c r="J4">
-        <v>1.052515067234555</v>
+        <v>1.041366517841675</v>
       </c>
       <c r="K4">
-        <v>1.051968250394145</v>
+        <v>1.044811308422492</v>
       </c>
       <c r="L4">
-        <v>1.047843618625594</v>
+        <v>1.034880828808656</v>
       </c>
       <c r="M4">
-        <v>1.058364843853478</v>
+        <v>1.037178571807025</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048379333379124</v>
+        <v>1.024143023821424</v>
       </c>
       <c r="D5">
-        <v>1.049782848163068</v>
+        <v>1.036375305933308</v>
       </c>
       <c r="E5">
-        <v>1.045674113111397</v>
+        <v>1.026418819632247</v>
       </c>
       <c r="F5">
-        <v>1.056321204275614</v>
+        <v>1.029176655914888</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044143905090804</v>
+        <v>1.05071169254763</v>
       </c>
       <c r="J5">
-        <v>1.05275674427203</v>
+        <v>1.042509616044987</v>
       </c>
       <c r="K5">
-        <v>1.052181422931124</v>
+        <v>1.04583956787498</v>
       </c>
       <c r="L5">
-        <v>1.048082608404508</v>
+        <v>1.035991638138207</v>
       </c>
       <c r="M5">
-        <v>1.058704163072175</v>
+        <v>1.038719147173396</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048436108218339</v>
+        <v>1.024413836135125</v>
       </c>
       <c r="D6">
-        <v>1.049827309165889</v>
+        <v>1.036585195913068</v>
       </c>
       <c r="E6">
-        <v>1.045722962062032</v>
+        <v>1.026643224798208</v>
       </c>
       <c r="F6">
-        <v>1.056386842252297</v>
+        <v>1.029473509462921</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044162034221213</v>
+        <v>1.050812675514541</v>
       </c>
       <c r="J6">
-        <v>1.052797307035894</v>
+        <v>1.042700503980217</v>
       </c>
       <c r="K6">
-        <v>1.052217198303267</v>
+        <v>1.046011258109161</v>
       </c>
       <c r="L6">
-        <v>1.048122723071852</v>
+        <v>1.036177166044139</v>
       </c>
       <c r="M6">
-        <v>1.05876112522525</v>
+        <v>1.038976479262202</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.048045663001911</v>
+        <v>1.022543645961775</v>
       </c>
       <c r="D7">
-        <v>1.049521536949698</v>
+        <v>1.035135895699026</v>
       </c>
       <c r="E7">
-        <v>1.045387041756104</v>
+        <v>1.025093930046009</v>
       </c>
       <c r="F7">
-        <v>1.055935481549429</v>
+        <v>1.027423803791219</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044037248973103</v>
+        <v>1.050114421586122</v>
       </c>
       <c r="J7">
-        <v>1.052518297600056</v>
+        <v>1.04138186238056</v>
       </c>
       <c r="K7">
-        <v>1.05197109997206</v>
+        <v>1.044825112783626</v>
       </c>
       <c r="L7">
-        <v>1.047846812875543</v>
+        <v>1.034895737758639</v>
       </c>
       <c r="M7">
-        <v>1.058369378595552</v>
+        <v>1.037199247352685</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046412381262706</v>
+        <v>1.014518248589143</v>
       </c>
       <c r="D8">
-        <v>1.048242202455471</v>
+        <v>1.02892141845707</v>
       </c>
       <c r="E8">
-        <v>1.043982296316305</v>
+        <v>1.018456520299413</v>
       </c>
       <c r="F8">
-        <v>1.054048301340043</v>
+        <v>1.018635987362322</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043512522700286</v>
+        <v>1.047096084967605</v>
       </c>
       <c r="J8">
-        <v>1.051349772405231</v>
+        <v>1.03571352881946</v>
       </c>
       <c r="K8">
-        <v>1.050939943162425</v>
+        <v>1.039723378836347</v>
       </c>
       <c r="L8">
-        <v>1.046691692980654</v>
+        <v>1.029392157805378</v>
       </c>
       <c r="M8">
-        <v>1.056730319567519</v>
+        <v>1.029569303420478</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043529281480873</v>
+        <v>0.99950469448393</v>
       </c>
       <c r="D9">
-        <v>1.04598300060436</v>
+        <v>1.017319580137866</v>
       </c>
       <c r="E9">
-        <v>1.041504364036813</v>
+        <v>1.006086948199506</v>
       </c>
       <c r="F9">
-        <v>1.050720438655875</v>
+        <v>1.002224467740853</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042575966045973</v>
+        <v>1.041367633956048</v>
       </c>
       <c r="J9">
-        <v>1.049281833199636</v>
+        <v>1.025074955397132</v>
       </c>
       <c r="K9">
-        <v>1.049113352797281</v>
+        <v>1.030137772772562</v>
       </c>
       <c r="L9">
-        <v>1.044649089806824</v>
+        <v>1.019082034880172</v>
       </c>
       <c r="M9">
-        <v>1.053835732552515</v>
+        <v>1.015281557311661</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041603624290201</v>
+        <v>0.988817280931904</v>
       </c>
       <c r="D10">
-        <v>1.044473494456281</v>
+        <v>1.009082785563097</v>
       </c>
       <c r="E10">
-        <v>1.039850543879658</v>
+        <v>0.9973192610757954</v>
       </c>
       <c r="F10">
-        <v>1.048499982498131</v>
+        <v>0.9905586958888922</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041943512934833</v>
+        <v>1.037237255291271</v>
       </c>
       <c r="J10">
-        <v>1.047897128045559</v>
+        <v>1.017481713258627</v>
       </c>
       <c r="K10">
-        <v>1.047889088927991</v>
+        <v>1.023289961392301</v>
       </c>
       <c r="L10">
-        <v>1.043282441092064</v>
+        <v>1.011737086368704</v>
       </c>
       <c r="M10">
-        <v>1.051901506647815</v>
+        <v>1.00510053434526</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040768897487659</v>
+        <v>0.9840050808100794</v>
       </c>
       <c r="D11">
-        <v>1.043819036668174</v>
+        <v>1.005380660098733</v>
       </c>
       <c r="E11">
-        <v>1.039133950918332</v>
+        <v>0.9933817232701468</v>
       </c>
       <c r="F11">
-        <v>1.047537995765653</v>
+        <v>0.9853093126797905</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041667721625165</v>
+        <v>1.035365749898456</v>
       </c>
       <c r="J11">
-        <v>1.04729606403219</v>
+        <v>1.014058745365662</v>
       </c>
       <c r="K11">
-        <v>1.047357393743446</v>
+        <v>1.020201813448439</v>
       </c>
       <c r="L11">
-        <v>1.042689475146048</v>
+        <v>1.008429539263635</v>
       </c>
       <c r="M11">
-        <v>1.051062846536271</v>
+        <v>1.000513695398704</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040458702981133</v>
+        <v>0.9821876326827071</v>
       </c>
       <c r="D12">
-        <v>1.043575814683647</v>
+        <v>1.003983589703586</v>
       </c>
       <c r="E12">
-        <v>1.038867702064533</v>
+        <v>0.9918962823232079</v>
       </c>
       <c r="F12">
-        <v>1.047180588629667</v>
+        <v>0.9833271902975603</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041564988375986</v>
+        <v>1.034657236773861</v>
       </c>
       <c r="J12">
-        <v>1.047072577475409</v>
+        <v>1.012765454369825</v>
       </c>
       <c r="K12">
-        <v>1.047159658735372</v>
+        <v>1.019034866311725</v>
       </c>
       <c r="L12">
-        <v>1.04246903881932</v>
+        <v>1.007180401199366</v>
       </c>
       <c r="M12">
-        <v>1.050751156925892</v>
+        <v>0.998780941091114</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040525247145238</v>
+        <v>0.9825788774068102</v>
       </c>
       <c r="D13">
-        <v>1.043627992418707</v>
+        <v>1.004284285821998</v>
       </c>
       <c r="E13">
-        <v>1.0389248167513</v>
+        <v>0.9922159778851083</v>
       </c>
       <c r="F13">
-        <v>1.047257257486262</v>
+        <v>0.9837538659674894</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041587038245915</v>
+        <v>1.034809834648983</v>
       </c>
       <c r="J13">
-        <v>1.047120526307462</v>
+        <v>1.013043885269822</v>
       </c>
       <c r="K13">
-        <v>1.047202084450761</v>
+        <v>1.019286103674101</v>
       </c>
       <c r="L13">
-        <v>1.042516331450811</v>
+        <v>1.007449301596329</v>
       </c>
       <c r="M13">
-        <v>1.050818023347412</v>
+        <v>0.9991539729674407</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040743259587657</v>
+        <v>0.9838554756200378</v>
       </c>
       <c r="D14">
-        <v>1.043798934471559</v>
+        <v>1.00526563501437</v>
       </c>
       <c r="E14">
-        <v>1.039111944235785</v>
+        <v>0.9932594129749168</v>
       </c>
       <c r="F14">
-        <v>1.047508454091579</v>
+        <v>0.9851461436349747</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041659235628998</v>
+        <v>1.035307461797947</v>
       </c>
       <c r="J14">
-        <v>1.047277595161157</v>
+        <v>1.013952296851163</v>
       </c>
       <c r="K14">
-        <v>1.047341053809663</v>
+        <v>1.020105767194774</v>
       </c>
       <c r="L14">
-        <v>1.042671257544681</v>
+        <v>1.008326713748947</v>
       </c>
       <c r="M14">
-        <v>1.051037085749549</v>
+        <v>1.000371070517613</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040877565605864</v>
+        <v>0.9846379848519169</v>
       </c>
       <c r="D15">
-        <v>1.043904240585668</v>
+        <v>1.005867319959675</v>
       </c>
       <c r="E15">
-        <v>1.039227229731005</v>
+        <v>0.9938992250581928</v>
       </c>
       <c r="F15">
-        <v>1.047663213534099</v>
+        <v>0.9859996160041934</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041703680075249</v>
+        <v>1.035612269025536</v>
       </c>
       <c r="J15">
-        <v>1.047374340622472</v>
+        <v>1.014509054559894</v>
       </c>
       <c r="K15">
-        <v>1.047426645582852</v>
+        <v>1.020608111570785</v>
       </c>
       <c r="L15">
-        <v>1.042766688386729</v>
+        <v>1.008864544316088</v>
       </c>
       <c r="M15">
-        <v>1.051172034146484</v>
+        <v>1.001117052078178</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041659002968162</v>
+        <v>0.9891325761425518</v>
       </c>
       <c r="D16">
-        <v>1.044516910948269</v>
+        <v>1.009325497308907</v>
       </c>
       <c r="E16">
-        <v>1.039898091510503</v>
+        <v>0.9975774717801752</v>
       </c>
       <c r="F16">
-        <v>1.048563815111221</v>
+        <v>0.9909026994734702</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041961775411645</v>
+        <v>1.037359638800069</v>
       </c>
       <c r="J16">
-        <v>1.047936987329757</v>
+        <v>1.017705909829473</v>
       </c>
       <c r="K16">
-        <v>1.04792434228885</v>
+        <v>1.02349220467793</v>
       </c>
       <c r="L16">
-        <v>1.043321768844831</v>
+        <v>1.011953797100822</v>
       </c>
       <c r="M16">
-        <v>1.051957141617491</v>
+        <v>1.005401007215229</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042148933055577</v>
+        <v>0.9919009998579877</v>
       </c>
       <c r="D17">
-        <v>1.044900998618379</v>
+        <v>1.011457373954501</v>
       </c>
       <c r="E17">
-        <v>1.040318775653325</v>
+        <v>0.9998458458584948</v>
       </c>
       <c r="F17">
-        <v>1.049128597312489</v>
+        <v>0.9939235658921696</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04212315279065</v>
+        <v>1.038432898047466</v>
       </c>
       <c r="J17">
-        <v>1.048289523306851</v>
+        <v>1.019674008271156</v>
       </c>
       <c r="K17">
-        <v>1.048236109468455</v>
+        <v>1.025267452536776</v>
       </c>
       <c r="L17">
-        <v>1.043669633725673</v>
+        <v>1.013856578495228</v>
       </c>
       <c r="M17">
-        <v>1.052449313744735</v>
+        <v>1.008038982502197</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042434613978413</v>
+        <v>0.9934981406242608</v>
       </c>
       <c r="D18">
-        <v>1.045124950369871</v>
+        <v>1.01268789871793</v>
       </c>
       <c r="E18">
-        <v>1.040564107656083</v>
+        <v>1.00115546053488</v>
       </c>
       <c r="F18">
-        <v>1.049457975915348</v>
+        <v>0.9956666635230004</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042217094885659</v>
+        <v>1.039050965557511</v>
       </c>
       <c r="J18">
-        <v>1.04849500919587</v>
+        <v>1.020809050870136</v>
       </c>
       <c r="K18">
-        <v>1.048417805613137</v>
+        <v>1.026291158425592</v>
       </c>
       <c r="L18">
-        <v>1.043872421994763</v>
+        <v>1.014954278987096</v>
       </c>
       <c r="M18">
-        <v>1.052736280935434</v>
+        <v>1.009560617586285</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042532009149967</v>
+        <v>0.9940397981902778</v>
       </c>
       <c r="D19">
-        <v>1.045201298613522</v>
+        <v>1.01310532221997</v>
       </c>
       <c r="E19">
-        <v>1.040647751812387</v>
+        <v>1.001599765081461</v>
       </c>
       <c r="F19">
-        <v>1.049570277299197</v>
+        <v>0.996257877100697</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042249095103076</v>
+        <v>1.039260387934308</v>
       </c>
       <c r="J19">
-        <v>1.048565050502515</v>
+        <v>1.021193924957527</v>
       </c>
       <c r="K19">
-        <v>1.04847973352451</v>
+        <v>1.026638259808366</v>
       </c>
       <c r="L19">
-        <v>1.043941548046484</v>
+        <v>1.015326546014923</v>
       </c>
       <c r="M19">
-        <v>1.052834111066372</v>
+        <v>1.010076626474997</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042096377223142</v>
+        <v>0.9916058137486068</v>
       </c>
       <c r="D20">
-        <v>1.0448597979477</v>
+        <v>1.01122999540515</v>
       </c>
       <c r="E20">
-        <v>1.040273644997239</v>
+        <v>0.9996038775745281</v>
       </c>
       <c r="F20">
-        <v>1.049068006665269</v>
+        <v>0.9936014300692584</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042105857836546</v>
+        <v>1.038318575479784</v>
       </c>
       <c r="J20">
-        <v>1.048251714280189</v>
+        <v>1.019464196623779</v>
       </c>
       <c r="K20">
-        <v>1.048202675578729</v>
+        <v>1.025078211855007</v>
       </c>
       <c r="L20">
-        <v>1.043632323073829</v>
+        <v>1.01365369589564</v>
       </c>
       <c r="M20">
-        <v>1.052396519588384</v>
+        <v>1.007757731520205</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040679064247993</v>
+        <v>0.9834803963999122</v>
       </c>
       <c r="D21">
-        <v>1.043748599827903</v>
+        <v>1.004977271167251</v>
       </c>
       <c r="E21">
-        <v>1.039056841927581</v>
+        <v>0.9929527928239049</v>
       </c>
       <c r="F21">
-        <v>1.047434485268979</v>
+        <v>0.9847370649409932</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041637983372981</v>
+        <v>1.035161299147128</v>
       </c>
       <c r="J21">
-        <v>1.047231348520421</v>
+        <v>1.01368540878245</v>
       </c>
       <c r="K21">
-        <v>1.047300137433293</v>
+        <v>1.01986495720844</v>
       </c>
       <c r="L21">
-        <v>1.042625640725031</v>
+        <v>1.008068918093979</v>
       </c>
       <c r="M21">
-        <v>1.050972582168968</v>
+        <v>1.000013484991803</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039787132505778</v>
+        <v>0.9781968396887593</v>
       </c>
       <c r="D22">
-        <v>1.043049208261572</v>
+        <v>1.000918111432517</v>
       </c>
       <c r="E22">
-        <v>1.038291358282753</v>
+        <v>0.9886377433667801</v>
       </c>
       <c r="F22">
-        <v>1.04640694605967</v>
+        <v>0.9789755340895667</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041342121574375</v>
+        <v>1.033098431506671</v>
       </c>
       <c r="J22">
-        <v>1.046588503173409</v>
+        <v>1.00992474608866</v>
       </c>
       <c r="K22">
-        <v>1.04673128768493</v>
+        <v>1.016471402270901</v>
       </c>
       <c r="L22">
-        <v>1.041991643237431</v>
+        <v>1.004437699933856</v>
       </c>
       <c r="M22">
-        <v>1.050076287800698</v>
+        <v>0.9949753209900037</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040260040563807</v>
+        <v>0.9810151452968746</v>
       </c>
       <c r="D23">
-        <v>1.043420039604578</v>
+        <v>1.003082636088185</v>
       </c>
       <c r="E23">
-        <v>1.038697197369052</v>
+        <v>0.9909384693647373</v>
       </c>
       <c r="F23">
-        <v>1.046951711200015</v>
+        <v>0.9820485820252098</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041499124216818</v>
+        <v>1.034199687098805</v>
       </c>
       <c r="J23">
-        <v>1.046929411847509</v>
+        <v>1.011930978735459</v>
       </c>
       <c r="K23">
-        <v>1.047032978034069</v>
+        <v>1.018281869789056</v>
       </c>
       <c r="L23">
-        <v>1.042327838227849</v>
+        <v>1.006374570395454</v>
       </c>
       <c r="M23">
-        <v>1.050551527496223</v>
+        <v>0.9976629708969036</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.042120125210276</v>
+        <v>0.9917392499715972</v>
       </c>
       <c r="D24">
-        <v>1.044878415004761</v>
+        <v>1.011332777926905</v>
       </c>
       <c r="E24">
-        <v>1.04029403774002</v>
+        <v>0.9997132541899656</v>
       </c>
       <c r="F24">
-        <v>1.049095385122726</v>
+        <v>0.9937470476717425</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042113673258382</v>
+        <v>1.038370257418899</v>
       </c>
       <c r="J24">
-        <v>1.048268798991731</v>
+        <v>1.019559041274601</v>
       </c>
       <c r="K24">
-        <v>1.048217783385121</v>
+        <v>1.025163757831204</v>
       </c>
       <c r="L24">
-        <v>1.043649182507991</v>
+        <v>1.013745407277976</v>
       </c>
       <c r="M24">
-        <v>1.052420375330119</v>
+        <v>1.00788486926344</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.044275250331213</v>
+        <v>1.00349831912839</v>
       </c>
       <c r="D25">
-        <v>1.046567644590186</v>
+        <v>1.020402359413837</v>
       </c>
       <c r="E25">
-        <v>1.042145288636674</v>
+        <v>1.009371253063335</v>
       </c>
       <c r="F25">
-        <v>1.051581083309771</v>
+        <v>1.006586894650308</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04281950801395</v>
+        <v>1.042900621664315</v>
       </c>
       <c r="J25">
-        <v>1.04981750696802</v>
+        <v>1.027908521729371</v>
       </c>
       <c r="K25">
-        <v>1.049586714336185</v>
+        <v>1.0326920007142</v>
       </c>
       <c r="L25">
-        <v>1.045178009103105</v>
+        <v>1.021825813599436</v>
       </c>
       <c r="M25">
-        <v>1.054584829280424</v>
+        <v>1.01908381092638</v>
       </c>
     </row>
   </sheetData>
